--- a/cldr/main/keys.xlsx
+++ b/cldr/main/keys.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="433">
   <si>
     <t xml:space="preserve">календарь</t>
   </si>
   <si>
+    <t xml:space="preserve">амзар</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=calendar</t>
   </si>
   <si>
@@ -37,54 +40,81 @@
     <t xml:space="preserve">сортировка без учета символов</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра без учета символов</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=colAlternate</t>
   </si>
   <si>
     <t xml:space="preserve">обратная сортировка по акценту</t>
   </si>
   <si>
+    <t xml:space="preserve">обратная Аилыхра по акценту</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=colBackwards</t>
   </si>
   <si>
     <t xml:space="preserve">сортировка по верхнему или нижнему регистру</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра по верхнему или нижнему регистру</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=colCaseFirst</t>
   </si>
   <si>
     <t xml:space="preserve">сортировка с учетом регистра</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра с учетом регистра</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=colCaseLevel</t>
   </si>
   <si>
     <t xml:space="preserve">порядок сортировки</t>
   </si>
   <si>
+    <t xml:space="preserve">порядок аилыхрақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=collation</t>
   </si>
   <si>
     <t xml:space="preserve">нормализованная сортировка</t>
   </si>
   <si>
+    <t xml:space="preserve">нормализованная Аилыхра</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=colNormalization</t>
   </si>
   <si>
     <t xml:space="preserve">числовая сортировка</t>
   </si>
   <si>
+    <t xml:space="preserve">числовая Аилыхра</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=colNumeric</t>
   </si>
   <si>
     <t xml:space="preserve">эффективность сортировки</t>
   </si>
   <si>
+    <t xml:space="preserve">эффективность аилыхрақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=colStrength</t>
   </si>
   <si>
     <t xml:space="preserve">валюта</t>
   </si>
   <si>
+    <t xml:space="preserve">авалиута</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=currency</t>
   </si>
   <si>
@@ -97,18 +127,27 @@
     <t xml:space="preserve">стиль перевода строки</t>
   </si>
   <si>
+    <t xml:space="preserve">стиль перевода ацәаҳәақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=lb</t>
   </si>
   <si>
     <t xml:space="preserve">система мер</t>
   </si>
   <si>
+    <t xml:space="preserve">ашәага-загақәа реилазаара</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=ms</t>
   </si>
   <si>
     <t xml:space="preserve">цифры</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">key type=numbers</t>
   </si>
   <si>
@@ -133,108 +172,306 @@
     <t xml:space="preserve">буддийский календарь</t>
   </si>
   <si>
+    <t xml:space="preserve">буддийский амзар</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=buddhist</t>
   </si>
   <si>
     <t xml:space="preserve">китайский календарь</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">акитаитәи </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амзар</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=chinese</t>
   </si>
   <si>
     <t xml:space="preserve">Коптский календарь</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">акопттәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амзар</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=coptic</t>
   </si>
   <si>
     <t xml:space="preserve">календарь данги</t>
   </si>
   <si>
+    <t xml:space="preserve">амзар данги</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=dangi</t>
   </si>
   <si>
     <t xml:space="preserve">эфиопский календарь</t>
   </si>
   <si>
+    <t xml:space="preserve">эфиопский амзар</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=ethiopic</t>
   </si>
   <si>
     <t xml:space="preserve">Эфиопский календарь &amp;quot;Амете Алем&amp;quot;</t>
   </si>
   <si>
+    <t xml:space="preserve">Эфиопский амзар &amp;quot;Амете Алем&amp;quot;</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=ethiopic-amete-alem</t>
   </si>
   <si>
     <t xml:space="preserve">григорианский календарь</t>
   </si>
   <si>
+    <t xml:space="preserve">григорианский амзар</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=gregorian</t>
   </si>
   <si>
     <t xml:space="preserve">еврейский календарь</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ауриатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амзар</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=hebrew</t>
   </si>
   <si>
     <t xml:space="preserve">Национальный календарь Индии</t>
   </si>
   <si>
+    <t xml:space="preserve">Милаҭтәи амзар Инди</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=indian</t>
   </si>
   <si>
     <t xml:space="preserve">исламский календарь</t>
   </si>
   <si>
+    <t xml:space="preserve">аисламтәи амзар</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=islamic</t>
   </si>
   <si>
     <t xml:space="preserve">Исламский гражданский календарь</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Аисламтәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> гражданский амзар</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=islamic-civil</t>
   </si>
   <si>
     <t xml:space="preserve">исламский календарь (Саудовская Аравия)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аисламтәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амзар (Саудовская Аравия)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=islamic-rgsa draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">исламский календарь (табличный, астрономическая эпоха)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аисламтәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амзар (табличный, астрономическая эпоха)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=islamic-tbla draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">исламский календарь (Умм аль-Кура)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аисламтәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амзар (Умм аль-Ҟәыра)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=islamic-umalqura draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">календарь ISO-8601</t>
   </si>
   <si>
+    <t xml:space="preserve">амзар ISO-8601</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=iso8601</t>
   </si>
   <si>
     <t xml:space="preserve">японский календарь</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аиапон</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амзар</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=japanese</t>
   </si>
   <si>
     <t xml:space="preserve">персидский календарь</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аџьамтәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> амзар</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=persian</t>
   </si>
   <si>
     <t xml:space="preserve">календарь Миньго</t>
   </si>
   <si>
+    <t xml:space="preserve">амзар Минго</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=calendar type=roc</t>
   </si>
   <si>
@@ -253,6 +490,9 @@
     <t xml:space="preserve">Сортировка символов</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра символов</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colAlternate type=non-ignorable draft=contributed</t>
   </si>
   <si>
@@ -265,36 +505,54 @@
     <t xml:space="preserve">Сортировка по акцентам в обычном порядке</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра по акцентам в обычном порядке</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colBackwards type=no draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка по акцентам в обратном порядке</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра по акцентам в обратном порядке</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colBackwards type=yes draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Приоритетная сортировка слов в нижнем регистре</t>
   </si>
   <si>
+    <t xml:space="preserve">Приоритетная Аилыхра слов в нижнем регистре</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colCaseFirst type=lower draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка по стандартным правилам</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра по стандартным правилам</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colCaseFirst type=no draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Приоритетная сортировка слов в верхнем регистре</t>
   </si>
   <si>
+    <t xml:space="preserve">Приоритетная Аилыхра слов в верхнем регистре</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colCaseFirst type=upper draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка вне зависимости от регистра</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра вне зависимости от регистра</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colCaseLevel type=no draft=contributed</t>
   </si>
   <si>
@@ -307,36 +565,70 @@
     <t xml:space="preserve">Сортировка традиционного китайского языка – Big5</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра традиционного китайского языка – Big5</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=big5han</t>
   </si>
   <si>
     <t xml:space="preserve">совместимый порядок сортировки</t>
   </si>
   <si>
+    <t xml:space="preserve">совместимый порядок аилыхрақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=compat draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">словарный порядок сортировки</t>
   </si>
   <si>
+    <t xml:space="preserve">словарный порядок аилыхрақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=dictionary</t>
   </si>
   <si>
     <t xml:space="preserve">cтандартная сортировка Unicode</t>
   </si>
   <si>
+    <t xml:space="preserve">cтандартная Аилыхра Unicode</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=ducet</t>
   </si>
   <si>
     <t xml:space="preserve">эмодзи</t>
   </si>
   <si>
+    <t xml:space="preserve">емоӡи</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=emoji draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">европейские правила сортировки</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">европатәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> правила аилыхрақәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=eor draft=contributed</t>
   </si>
   <si>
@@ -349,30 +641,45 @@
     <t xml:space="preserve">порядок телефонной книги</t>
   </si>
   <si>
+    <t xml:space="preserve">порядок телефонной ашәҟәқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=phonebook</t>
   </si>
   <si>
     <t xml:space="preserve">Фонетический порядок сортировки</t>
   </si>
   <si>
+    <t xml:space="preserve">Фонетический порядок аилыхрақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=phonetic draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">пиньинь</t>
   </si>
   <si>
+    <t xml:space="preserve">пинин</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=pinyin</t>
   </si>
   <si>
     <t xml:space="preserve">реформированный порядок сортировки</t>
   </si>
   <si>
+    <t xml:space="preserve">реформированный порядок аилыхрақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=reformed</t>
   </si>
   <si>
     <t xml:space="preserve">поиск</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥшаара</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=search</t>
   </si>
   <si>
@@ -385,6 +692,9 @@
     <t xml:space="preserve">стандартная сортировка</t>
   </si>
   <si>
+    <t xml:space="preserve">стандартная Аилыхра</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=standard</t>
   </si>
   <si>
@@ -397,84 +707,126 @@
     <t xml:space="preserve">традиционный порядок</t>
   </si>
   <si>
+    <t xml:space="preserve">атрадициатә порядок</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=traditional</t>
   </si>
   <si>
     <t xml:space="preserve">сортировка по ключам, затем по чертам</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра по ключам, затем по чертам</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=unihan</t>
   </si>
   <si>
     <t xml:space="preserve">чжуинь</t>
   </si>
   <si>
+    <t xml:space="preserve">ачжуан</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=collation type=zhuyin draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка без нормализации</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра без нормализации</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colNormalization type=no draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка нормализованных символов Unicode</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра нормализованных символов Unicode</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colNormalization type=yes draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Отдельная сортировка числовых значений</t>
   </si>
   <si>
+    <t xml:space="preserve">Отдельная Аилыхра числовых значений</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colNumeric type=no draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка численных значений</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра численных значений</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colNumeric type=yes draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Полная сортировка</t>
   </si>
   <si>
+    <t xml:space="preserve">Полная Аилыхра</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colStrength type=identical draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка только по символам, обозначающим разрядность</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра только по символам, обозначающим разрядность</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colStrength type=primary draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка по акцентам/регистрам/длине строки/кане</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра по акцентам/регистрам/длине ацәаҳәақәа/кане</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colStrength type=quaternary draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка по акцентам</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра по акцентам</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colStrength type=secondary draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Сортировка по акцентам/регистру/длине строки</t>
   </si>
   <si>
+    <t xml:space="preserve">Аилыхра по акцентам/регистру/длине ацәаҳәақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=colStrength type=tertiary draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">полноширинные символы</t>
   </si>
   <si>
+    <t xml:space="preserve">полноширинные адыргақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=d0 type=fwidth</t>
   </si>
   <si>
     <t xml:space="preserve">полуширинные символы</t>
   </si>
   <si>
+    <t xml:space="preserve">полуширинные адыргақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=d0 type=hwidth</t>
   </si>
   <si>
@@ -511,412 +863,1132 @@
     <t xml:space="preserve">мягкий перевод строки</t>
   </si>
   <si>
+    <t xml:space="preserve">мягкий перевод ацәаҳәақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=lb type=loose</t>
   </si>
   <si>
     <t xml:space="preserve">обычный перевод строки</t>
   </si>
   <si>
+    <t xml:space="preserve">обычный перевод ацәаҳәақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=lb type=normal</t>
   </si>
   <si>
     <t xml:space="preserve">жесткий перевод строки</t>
   </si>
   <si>
+    <t xml:space="preserve">жесткий перевод ацәаҳәақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=lb type=strict</t>
   </si>
   <si>
     <t xml:space="preserve">система транслитерации BGN</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">атранслитерациа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аилазаара BGN</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=m0 type=bgn</t>
   </si>
   <si>
     <t xml:space="preserve">система транслитерации ООН</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">атранслитерациа </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аилазаара ООН</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=m0 type=ungegn</t>
   </si>
   <si>
     <t xml:space="preserve">метрическая система</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">аметрикатә </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аилазаара</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=ms type=metric</t>
   </si>
   <si>
     <t xml:space="preserve">британская система мер</t>
   </si>
   <si>
+    <t xml:space="preserve">абритан ашәага-загақәа реилазаара</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=ms type=uksystem</t>
   </si>
   <si>
     <t xml:space="preserve">американская система мер</t>
   </si>
   <si>
+    <t xml:space="preserve">америкатәи ашәага-загақәа реилазаара</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=ms type=ussystem</t>
   </si>
   <si>
     <t xml:space="preserve">арабско-индийские цифры</t>
   </si>
   <si>
+    <t xml:space="preserve">Араб-инди аԥхьаӡацқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=arab</t>
   </si>
   <si>
     <t xml:space="preserve">расширенная система арабско-индийских цифр</t>
   </si>
   <si>
+    <t xml:space="preserve">ирҭбаау араб-индиатәи аԥхьаӡац аилазаара</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=arabext</t>
   </si>
   <si>
     <t xml:space="preserve">армянские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аерман</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=armn</t>
   </si>
   <si>
     <t xml:space="preserve">армянские цифры в нижнем регистре</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аерман</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа в нижнем регистре</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=armnlow</t>
   </si>
   <si>
     <t xml:space="preserve">балийские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">абали</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=bali draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">бенгальские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">абенгал</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=beng</t>
   </si>
   <si>
     <t xml:space="preserve">цифры брахми</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа брахми</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=brah draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры чакма</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа чакма</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=cakm draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">чамские цифры</t>
   </si>
   <si>
+    <t xml:space="preserve">ачам аԥхьаӡацқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=cham draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры деванагари</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа деванагари</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=deva</t>
   </si>
   <si>
     <t xml:space="preserve">эфиопские цифры</t>
   </si>
   <si>
+    <t xml:space="preserve">эфиопские аԥхьаӡацқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=ethi</t>
   </si>
   <si>
     <t xml:space="preserve">Символы обозначения финансовых показателей</t>
   </si>
   <si>
+    <t xml:space="preserve">Адыргақәа обозначения финансовых показателей</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=finance draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">полноширинные цифры</t>
   </si>
   <si>
+    <t xml:space="preserve">полноширинные аԥхьаӡацқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=fullwide</t>
   </si>
   <si>
     <t xml:space="preserve">грузинские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ақырҭ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=geor</t>
   </si>
   <si>
     <t xml:space="preserve">греческие цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">абырзен</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=grek</t>
   </si>
   <si>
     <t xml:space="preserve">греческие цифры в нижнем регистре</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">абырзен</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа в нижнем регистре</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=greklow</t>
   </si>
   <si>
     <t xml:space="preserve">цифры гуджарати</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа гуџарати</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=gujr</t>
   </si>
   <si>
     <t xml:space="preserve">цифры гурмукхи</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа гурмукхи</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=guru</t>
   </si>
   <si>
     <t xml:space="preserve">китайские десятичные цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">акитаитәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> десятичные аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=hanidec</t>
   </si>
   <si>
     <t xml:space="preserve">китайские упрощенные цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">акитаитәи имариоу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=hans</t>
   </si>
   <si>
     <t xml:space="preserve">китайские упрощенные цифры (финансы)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">акитаитәи имариоу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа (афинансқәа)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=hansfin</t>
   </si>
   <si>
     <t xml:space="preserve">китайские традиционные цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">акитаитәи атрадициатә</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=hant</t>
   </si>
   <si>
     <t xml:space="preserve">китайские традиционные цифры (финансы)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">акитаитәи атрадициатә</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа (афинансқәа)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=hantfin</t>
   </si>
   <si>
     <t xml:space="preserve">цифры на иврите</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа на иврите</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=hebr</t>
   </si>
   <si>
     <t xml:space="preserve">яванские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аиаван</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=java draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">японские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аиапон</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=jpan</t>
   </si>
   <si>
     <t xml:space="preserve">японские цифры (финансы)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аиапон</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа (афинансқәа)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=jpanfin</t>
   </si>
   <si>
     <t xml:space="preserve">цифры кайя ли</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа каиа ли</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=kali draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">кхмерские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">акхмер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=khmr</t>
   </si>
   <si>
     <t xml:space="preserve">цифры каннада</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа каннада</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=knda</t>
   </si>
   <si>
     <t xml:space="preserve">цифры тай там хора</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа таи там хора</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=lana draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры тай там там</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа таи там там</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=lanatham draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">лаосские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">алаос</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=laoo</t>
   </si>
   <si>
     <t xml:space="preserve">современные арабские цифры</t>
   </si>
   <si>
+    <t xml:space="preserve">иахьатәи араб аԥхьаӡацқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=latn</t>
   </si>
   <si>
     <t xml:space="preserve">цифры лепча</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа лепча</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=lepc draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры лимбу</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа лимбу</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=limb draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры малаялам</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа малаиалам</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=mlym</t>
   </si>
   <si>
     <t xml:space="preserve">Монгольские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">амонгол</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=mong</t>
   </si>
   <si>
     <t xml:space="preserve">цифры манипури</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа манипури</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=mtei draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">бирманские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">абирман</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=mymr</t>
   </si>
   <si>
     <t xml:space="preserve">бирманские шанские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">абирман</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> шантәи аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=mymrshan draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Обозначения цифр коренного населения</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Обозначения </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">аԥхьаӡац</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> коренного населения</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=native draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры нко</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа нко</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=nkoo draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры ол-чики</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа ол-чики</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=olck draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры ория</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа ориа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=orya</t>
   </si>
   <si>
     <t xml:space="preserve">цифры османья</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа османиа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=osma draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">римские цифры</t>
   </si>
   <si>
+    <t xml:space="preserve">римтәи аԥхьаӡацқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=roman</t>
   </si>
   <si>
     <t xml:space="preserve">римские цифры в нижнем регистре</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">римтәи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа в нижнем регистре</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=romanlow</t>
   </si>
   <si>
     <t xml:space="preserve">цифры саураштра</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа саураштра</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=saur draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры шарада</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа шарада</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=shrd draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры сора-сомпенг</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа сора-сомпенг</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=sora draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">суданские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">асундан</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=sund draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры такри</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа такри</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=takr draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">цифры новой тай-лю</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа ҿый таи-лиу</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=talu draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">тамильские традиционные цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">атамил</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> традиционные аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=taml</t>
   </si>
   <si>
     <t xml:space="preserve">тамильские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">атамил</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=tamldec</t>
   </si>
   <si>
     <t xml:space="preserve">цифры телугу</t>
   </si>
   <si>
+    <t xml:space="preserve">аԥхьаӡацқәа телугу</t>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=telu</t>
   </si>
   <si>
     <t xml:space="preserve">тайские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">атаи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=thai</t>
   </si>
   <si>
     <t xml:space="preserve">тибетские цифры</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">атибет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аԥхьаӡацқәа</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=tibt</t>
   </si>
   <si>
     <t xml:space="preserve">Традиционная система нумерации</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">атрадициатә аномерациа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> аилазаара</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">type key=numbers type=traditional draft=contributed</t>
   </si>
   <si>
     <t xml:space="preserve">Цифры языка вай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аԥхьаӡацқәа абызшәа ваи</t>
   </si>
   <si>
     <t xml:space="preserve">type key=numbers type=vaii draft=contributed</t>
@@ -929,11 +2001,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -949,6 +2022,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -993,8 +2078,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1015,1217 +2116,1725 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C566"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>64</v>
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>66</v>
+        <v>94</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>68</v>
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>72</v>
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>74</v>
+        <v>105</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>76</v>
+        <v>107</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>80</v>
+        <v>112</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>82</v>
+        <v>115</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>84</v>
+        <v>118</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>86</v>
+        <v>121</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>90</v>
+        <v>127</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>92</v>
+        <v>130</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>94</v>
+        <v>132</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>96</v>
+        <v>135</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>98</v>
+        <v>138</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>100</v>
+        <v>141</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>102</v>
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>106</v>
+        <v>150</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>108</v>
+        <v>152</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>110</v>
+        <v>155</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>112</v>
+        <v>158</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>114</v>
+        <v>161</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>116</v>
+        <v>164</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>118</v>
+        <v>167</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>120</v>
+        <v>169</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>122</v>
+        <v>172</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>124</v>
+        <v>174</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>126</v>
+        <v>177</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>128</v>
+        <v>180</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>130</v>
+        <v>183</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>132</v>
+        <v>186</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>134</v>
+        <v>189</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>136</v>
+        <v>192</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>138</v>
+        <v>195</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>140</v>
+        <v>198</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>142</v>
+        <v>201</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>144</v>
+        <v>204</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>146</v>
+        <v>207</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>148</v>
+        <v>210</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>150</v>
+        <v>213</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>152</v>
+        <v>216</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>154</v>
+        <v>218</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>156</v>
+        <v>220</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>158</v>
+        <v>222</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>160</v>
+        <v>224</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>162</v>
+        <v>226</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>164</v>
+        <v>229</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>166</v>
+        <v>232</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>168</v>
+        <v>235</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>170</v>
+        <v>238</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>172</v>
+        <v>241</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>174</v>
+        <v>244</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>176</v>
+        <v>247</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>178</v>
+        <v>250</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>180</v>
+        <v>253</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>182</v>
+        <v>256</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>184</v>
+        <v>259</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>186</v>
+        <v>262</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>188</v>
+        <v>265</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>190</v>
+        <v>268</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>192</v>
+        <v>271</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>194</v>
+        <v>274</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>196</v>
+        <v>277</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>198</v>
+        <v>280</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>200</v>
+        <v>283</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>204</v>
+        <v>289</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>206</v>
+        <v>292</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>208</v>
+        <v>295</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>210</v>
+        <v>298</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>212</v>
+        <v>301</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>214</v>
+        <v>304</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>216</v>
+        <v>307</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>217</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>218</v>
+        <v>310</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>220</v>
+        <v>313</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>222</v>
+        <v>316</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>224</v>
+        <v>319</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>226</v>
+        <v>322</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>228</v>
+        <v>325</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>229</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>230</v>
+        <v>328</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>232</v>
+        <v>331</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>233</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>234</v>
+        <v>334</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>236</v>
+        <v>337</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>238</v>
+        <v>340</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>240</v>
+        <v>343</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>242</v>
+        <v>346</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>244</v>
+        <v>349</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>245</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>246</v>
+        <v>352</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>248</v>
+        <v>355</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>250</v>
+        <v>358</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>251</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>252</v>
+        <v>361</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>254</v>
+        <v>364</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>256</v>
+        <v>367</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>257</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>258</v>
+        <v>370</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>260</v>
+        <v>373</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>262</v>
+        <v>376</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>263</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>264</v>
+        <v>379</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>266</v>
+        <v>382</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>267</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>268</v>
+        <v>385</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>269</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>270</v>
+        <v>388</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>272</v>
+        <v>391</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>274</v>
+        <v>394</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>275</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>276</v>
+        <v>397</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>277</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>278</v>
+        <v>400</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>279</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>280</v>
+        <v>403</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>281</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>282</v>
+        <v>406</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>284</v>
+        <v>409</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>286</v>
+        <v>412</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>287</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>288</v>
+        <v>415</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>289</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>290</v>
+        <v>418</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>291</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>292</v>
+        <v>421</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>293</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>294</v>
+        <v>424</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>295</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>296</v>
+        <v>427</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>297</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>298</v>
+        <v>430</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>299</v>
-      </c>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="3"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="3"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="3"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="3"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="3"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="3"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B466" s="4"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="4"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="3"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="3"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="3"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B533" s="3"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B534" s="3"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B535" s="3"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B538" s="3"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B539" s="3"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B564" s="4"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B565" s="3"/>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B566" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
